--- a/凡人飞升传/仙侣.xlsx
+++ b/凡人飞升传/仙侣.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>序号</t>
   </si>
@@ -36,7 +36,7 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>初始效果</t>
+    <t>效果</t>
   </si>
   <si>
     <t>绿色</t>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>董萱萱</t>
+  </si>
+  <si>
+    <t>预期双修每6分钟可获得5.5%修为</t>
+  </si>
+  <si>
+    <t>与其双修每10分钟可获得400炼丹经验</t>
   </si>
   <si>
     <t>大道修士</t>
@@ -230,8 +236,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -252,6 +258,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -260,6 +318,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -268,28 +364,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -299,83 +373,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +394,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -411,78 +417,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -495,13 +513,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,25 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,48 +597,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -616,6 +622,76 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,54 +716,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,137 +765,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +904,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1268,18 +1308,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:P45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1295,544 +1336,582 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <f>ROW()-1</f>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <f>ROW()-1</f>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <f>ROW()-1</f>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
-        <f>ROW()-1</f>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <f>ROW()-1</f>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <f>ROW()-1</f>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
-        <f>ROW()-1</f>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <f>ROW()-1</f>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <f>ROW()-1</f>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
-        <f>ROW()-1</f>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <f>ROW()-1</f>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <f>ROW()-1</f>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3">
-        <f>ROW()-1</f>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3">
-        <f>ROW()-1</f>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3">
-        <f>ROW()-1</f>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
-        <f>ROW()-1</f>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3">
-        <f>ROW()-1</f>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3">
-        <f>ROW()-1</f>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3">
-        <f>ROW()-1</f>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3">
-        <f>ROW()-1</f>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3">
-        <f>ROW()-1</f>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3">
-        <f>ROW()-1</f>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3">
-        <f>ROW()-1</f>
+      <c r="F23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3">
-        <f>ROW()-1</f>
+      <c r="D24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3">
-        <f>ROW()-1</f>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3">
-        <f>ROW()-1</f>
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3">
-        <f>ROW()-1</f>
+      <c r="E27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3">
-        <f>ROW()-1</f>
+      <c r="D28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3">
-        <f>ROW()-1</f>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3">
-        <f>ROW()-1</f>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F31">
-    <sortState ref="A2:F31">
+    <sortState ref="A1:F31">
       <sortCondition ref="C2:C82" sortBy="fontColor" dxfId="0"/>
       <sortCondition ref="C2:C82" descending="1" sortBy="fontColor" dxfId="1"/>
     </sortState>
     <extLst/>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <conditionalFormatting sqref="C$1:C$1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="between" text="橙色">
       <formula>NOT(ISERROR(SEARCH("橙色",C1)))</formula>

--- a/凡人飞升传/仙侣.xlsx
+++ b/凡人飞升传/仙侣.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>序号</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>林银瓶</t>
+  </si>
+  <si>
+    <t>预期双修每6分钟可获得0.4%修为</t>
+  </si>
+  <si>
+    <t>预期双修每30分钟可获得1玉盒</t>
   </si>
   <si>
     <t>御灵宗</t>
@@ -236,9 +242,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -258,6 +264,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -266,37 +355,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,16 +393,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,75 +407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -417,97 +423,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,36 +579,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -561,43 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +654,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -659,6 +674,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,56 +735,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,137 +771,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,9 +921,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,7 +1314,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G31"/>
+      <selection activeCell="F20" sqref="B20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1359,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5">
@@ -1377,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5">
@@ -1395,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5">
@@ -1413,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5">
@@ -1431,7 +1434,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5">
@@ -1451,7 +1454,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5">
@@ -1471,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5">
@@ -1489,7 +1492,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5">
@@ -1511,7 +1514,7 @@
       <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5">
@@ -1533,7 +1536,7 @@
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5">
@@ -1551,7 +1554,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5">
@@ -1569,7 +1572,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5">
@@ -1589,7 +1592,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5">
@@ -1607,7 +1610,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5">
@@ -1625,7 +1628,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5">
@@ -1643,7 +1646,7 @@
         <v>39</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5">
@@ -1661,7 +1664,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5">
@@ -1679,7 +1682,7 @@
         <v>42</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5">
@@ -1696,8 +1699,12 @@
       <c r="E20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5">
@@ -1709,13 +1716,13 @@
         <v>43</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5">
@@ -1727,13 +1734,13 @@
         <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5">
@@ -1745,16 +1752,16 @@
         <v>43</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1767,13 +1774,13 @@
         <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5">
@@ -1785,13 +1792,13 @@
         <v>43</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5">
@@ -1803,13 +1810,13 @@
         <v>43</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5">
@@ -1818,16 +1825,16 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5">
@@ -1836,16 +1843,16 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5">
@@ -1854,16 +1861,16 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="5">
@@ -1872,16 +1879,16 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5">
@@ -1890,16 +1897,16 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F31">
